--- a/后端/res_file/spide_data/test/test_原神/BV13SR5YMEis_原神动画 获得神之眼的当晚_2025040612.xlsx
+++ b/后端/res_file/spide_data/test/test_原神/BV13SR5YMEis_原神动画 获得神之眼的当晚_2025040612.xlsx
@@ -13794,7 +13794,7 @@
         <v>245</v>
       </c>
       <c r="I62">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J62" t="s">
         <v>246</v>
@@ -14082,7 +14082,7 @@
         <v>281</v>
       </c>
       <c r="I71">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J71" t="s">
         <v>282</v>
